--- a/rabc.xlsx
+++ b/rabc.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
